--- a/Daisy-xls/ResearchPages/research-thyroid-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-thyroid-cancer.xlsx
@@ -148,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,12 +171,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -219,6 +234,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -564,7 +582,9 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="20">
+        <v>488738</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -581,7 +601,9 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="20">
+        <v>912173</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
@@ -597,7 +619,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="20">
+        <v>842607</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
@@ -613,7 +637,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="20">
+        <v>772122</v>
+      </c>
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
@@ -631,7 +657,9 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20">
+        <v>315480</v>
+      </c>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -649,7 +677,9 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20">
+        <v>225392</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -667,7 +697,9 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="20">
+        <v>139034</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
